--- a/pbmc_test.xlsx
+++ b/pbmc_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-api-gae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B130CB7-558A-DC44-AA55-269224EF3899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB0757B-1D93-484F-A653-5121C31A77DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="286">
   <si>
     <t>LEGEND</t>
   </si>
@@ -1586,6 +1586,9 @@
   <si>
     <t>TRIALGROUP 6</t>
   </si>
+  <si>
+    <t>Local review consistent with diagnostic pathology report</t>
+  </si>
 </sst>
 </file>
 
@@ -1727,9 +1730,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1738,6 +1738,9 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3333,10 +3336,10 @@
       <c r="A1" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3345,7 +3348,7 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3356,7 +3359,7 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3367,7 +3370,7 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3378,7 +3381,7 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3389,7 +3392,7 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3400,7 +3403,7 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3411,7 +3414,7 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3422,7 +3425,7 @@
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3433,7 +3436,7 @@
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3444,7 +3447,7 @@
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>37174</v>
       </c>
     </row>
@@ -3455,7 +3458,7 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>37539</v>
       </c>
     </row>
@@ -3466,7 +3469,7 @@
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3477,7 +3480,7 @@
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3488,7 +3491,7 @@
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13515,8 +13518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O2004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13528,35 +13531,35 @@
       <c r="A1" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -13625,7 +13628,7 @@
         <v>251</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="H5" t="s">
         <v>252</v>
@@ -13672,7 +13675,7 @@
         <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="H6" t="s">
         <v>252</v>
@@ -13719,7 +13722,7 @@
         <v>251</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="H7" t="s">
         <v>252</v>
@@ -13766,7 +13769,7 @@
         <v>251</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="H8" t="s">
         <v>252</v>
@@ -13813,7 +13816,7 @@
         <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="H9" t="s">
         <v>252</v>
@@ -13860,7 +13863,7 @@
         <v>251</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="H10" t="s">
         <v>252</v>
@@ -23920,8 +23923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB2004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23933,48 +23936,48 @@
       <c r="A1" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
